--- a/biology/Botanique/Ticorea/Ticorea.xlsx
+++ b/biology/Botanique/Ticorea/Ticorea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ticorea
 Ticorea est un genre d'arbuste, appartenant à la famille des Rutaceae (familles des agrumes), et dont l'espèce type est Ticorea foetida Aubl..
@@ -512,10 +524,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le genre Ticorea regroupe des arbres et arbustes à feuilles alternes, 3-foliolées. Les pétioles ne sont pas pulvinés à l'apex (au moins chez les spécimens secs). Le limbe porte sur la surface abaxiale, des domaties à l'aisselle des nervures secondaires. L'inflorescence est terminale. Les fleurs comportent un calice en cupule, à 5 dents. Les pétales sont blancs, pubescents sur les deux faces, d'abord formant un tube à l'anthèse, puis devenant libres. Les filets sont initialement cohérents à la corolle par leur pubescence se libèrent finalement libres. Le nectaire forme un disque courbé en cupule, courtement pubescent sur ses bords, de même hauteur que l'ovaire. L'ovaire est formé de 5 carpelles glabres connés axialement mais libres latéralement. Le fruit se compose de 1 à 5 méricarpes, initialement plus ou moins connés axialement, se séparant les uns des autres lorsqu'ils se développent inégal et lors de la déhiscence, chacun avec une crête dorsale longitudinale et deux crêtes latérales aboutissant à des carpelles adjacents. Les graines sont oblongues, lisses, glabres et brunes[1],[2].
-Le pollen du genre Ticorea a été étudié[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le genre Ticorea regroupe des arbres et arbustes à feuilles alternes, 3-foliolées. Les pétioles ne sont pas pulvinés à l'apex (au moins chez les spécimens secs). Le limbe porte sur la surface abaxiale, des domaties à l'aisselle des nervures secondaires. L'inflorescence est terminale. Les fleurs comportent un calice en cupule, à 5 dents. Les pétales sont blancs, pubescents sur les deux faces, d'abord formant un tube à l'anthèse, puis devenant libres. Les filets sont initialement cohérents à la corolle par leur pubescence se libèrent finalement libres. Le nectaire forme un disque courbé en cupule, courtement pubescent sur ses bords, de même hauteur que l'ovaire. L'ovaire est formé de 5 carpelles glabres connés axialement mais libres latéralement. Le fruit se compose de 1 à 5 méricarpes, initialement plus ou moins connés axialement, se séparant les uns des autres lorsqu'ils se développent inégal et lors de la déhiscence, chacun avec une crête dorsale longitudinale et deux crêtes latérales aboutissant à des carpelles adjacents. Les graines sont oblongues, lisses, glabres et brunes,.
+Le pollen du genre Ticorea a été étudié.
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Diagnose</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>En 1775, le botaniste Aublet propose la diagnose suivante[4] : 
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>En 1775, le botaniste Aublet propose la diagnose suivante : 
 « TICOREA. (Tabula 277.)
 CAL. Perianthium monophyllum, minimum, quinquedentatum, denticulis acutis. 
 COR. Petal a quinque, unguibus longiſſimis, in tubum coalitis, diſco infertis ; limbus patulus, lobis ovatis, reflexis. 
@@ -582,9 +598,11 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon World Flora Online (WFO)       (14 décembre 2021)[5] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Flora Online (WFO)       (14 décembre 2021) :
 Ticorea foetida Aubl.
 Ticorea froesii Kallunki
 Ticorea longiflora DC.
